--- a/output/size_tables_mountainhardwear.xlsx
+++ b/output/size_tables_mountainhardwear.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IDA\test\output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E844B68D-876C-430C-959D-B1E73CB16AB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B54072-79DC-454C-97F9-C28B966DD406}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7380" yWindow="2130" windowWidth="19800" windowHeight="14070" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-90" yWindow="0" windowWidth="14990" windowHeight="10890" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="50">
   <si>
     <t>SIZE</t>
   </si>
@@ -69,114 +69,122 @@
     <t>XL</t>
   </si>
   <si>
-    <t>여성 상의</t>
+    <t>PANT SIZE</t>
+  </si>
+  <si>
+    <t>WAIST</t>
+  </si>
+  <si>
+    <t>HIP</t>
+  </si>
+  <si>
+    <t>63.5-66</t>
+  </si>
+  <si>
+    <t>88.9-91.4</t>
+  </si>
+  <si>
+    <t>68.6-71.1</t>
+  </si>
+  <si>
+    <t>94-96.5</t>
+  </si>
+  <si>
+    <t>73.7-76.2</t>
+  </si>
+  <si>
+    <t>99.1-101.6</t>
+  </si>
+  <si>
+    <t>78.7-83.8</t>
+  </si>
+  <si>
+    <t>105.4-109.2</t>
+  </si>
+  <si>
+    <t>91.4-96.5</t>
+  </si>
+  <si>
+    <t>104.1-109.2</t>
+  </si>
+  <si>
+    <t>111.8-116.8</t>
+  </si>
+  <si>
+    <t>XXL</t>
+  </si>
+  <si>
+    <t>121.9-129.5</t>
+  </si>
+  <si>
+    <t>HIPS</t>
+  </si>
+  <si>
+    <t>30, 31</t>
+  </si>
+  <si>
+    <t>73.7-78.7</t>
+  </si>
+  <si>
+    <t>32, 33</t>
+  </si>
+  <si>
+    <t>34, 36</t>
+  </si>
+  <si>
+    <t>86.4-91.4</t>
+  </si>
+  <si>
+    <t>38, 40</t>
+  </si>
+  <si>
+    <t>94-99.1</t>
+  </si>
+  <si>
+    <t>121.9-127</t>
+  </si>
+  <si>
+    <t>4/6</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>PANT SIZE</t>
-  </si>
-  <si>
-    <t>WAIST</t>
-  </si>
-  <si>
-    <t>HIP</t>
-  </si>
-  <si>
-    <t>63.5-66</t>
-  </si>
-  <si>
-    <t>88.9-91.4</t>
-  </si>
-  <si>
-    <t>68.6-71.1</t>
-  </si>
-  <si>
-    <t>94-96.5</t>
-  </si>
-  <si>
-    <t>73.7-76.2</t>
-  </si>
-  <si>
-    <t>99.1-101.6</t>
-  </si>
-  <si>
-    <t>78.7-83.8</t>
-  </si>
-  <si>
-    <t>105.4-109.2</t>
-  </si>
-  <si>
-    <t>SHORT INSEAM</t>
-  </si>
-  <si>
-    <t>REGULAR INSEAM</t>
-  </si>
-  <si>
-    <t>LONG INSEAM</t>
-  </si>
-  <si>
-    <t>여성 하의</t>
+    <t>8/10</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>여성 하의 (다리길이)</t>
+    <t>12/14</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>91.4-96.5</t>
-  </si>
-  <si>
-    <t>104.1-109.2</t>
-  </si>
-  <si>
-    <t>111.8-116.8</t>
-  </si>
-  <si>
-    <t>XXL</t>
-  </si>
-  <si>
-    <t>121.9-129.5</t>
-  </si>
-  <si>
-    <t>남성 상의</t>
+    <t>여성 반팔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>HIPS</t>
-  </si>
-  <si>
-    <t>30, 31</t>
-  </si>
-  <si>
-    <t>73.7-78.7</t>
-  </si>
-  <si>
-    <t>32, 33</t>
-  </si>
-  <si>
-    <t>34, 36</t>
-  </si>
-  <si>
-    <t>86.4-91.4</t>
-  </si>
-  <si>
-    <t>38, 40</t>
-  </si>
-  <si>
-    <t>94-99.1</t>
-  </si>
-  <si>
-    <t>121.9-127</t>
-  </si>
-  <si>
-    <t>HORT INSEAM</t>
-  </si>
-  <si>
-    <t>남성 하의</t>
+    <t>여성 긴팔</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>남성 하의 (다리길이)</t>
+    <t>여성 반바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여성 긴바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 반팔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 긴팔</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 반바지</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남성 긴바지</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -184,10 +192,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="180" formatCode="mm&quot;월&quot;\ dd&quot;일&quot;"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -266,7 +271,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -274,9 +279,13 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -560,31 +569,71 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:AD7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Y12" sqref="Y12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="9.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="9.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.83203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
+    <row r="1" spans="1:30" x14ac:dyDescent="0.45">
+      <c r="A1" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="6"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
+      <c r="M1" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="N1" s="6"/>
+      <c r="O1" s="6"/>
+      <c r="P1" s="6"/>
+      <c r="Q1" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="R1" s="6"/>
+      <c r="S1" s="6"/>
+      <c r="T1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="U1" s="6"/>
+      <c r="V1" s="6"/>
+      <c r="W1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="X1" s="6"/>
+      <c r="Y1" s="6"/>
+      <c r="Z1" s="6"/>
+      <c r="AA1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="AB1" s="6"/>
+      <c r="AC1" s="6"/>
+      <c r="AD1" s="6"/>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
@@ -593,12 +642,90 @@
       <c r="D2" s="1" t="s">
         <v>3</v>
       </c>
+      <c r="E2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="O2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="S2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="T2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="V2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="W2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="AC2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C3" s="2" t="s">
@@ -607,13 +734,91 @@
       <c r="D3" s="2">
         <v>76.2</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H3" s="2">
+        <v>76.2</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="O3" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="R3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="S3" s="2">
+        <v>83.8</v>
+      </c>
+      <c r="T3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="V3" s="2">
+        <v>83.8</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z3" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AB3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="AC3" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AD3" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="3">
-        <v>45388</v>
+      <c r="B4" s="4" t="s">
+        <v>39</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>8</v>
@@ -621,13 +826,91 @@
       <c r="D4" s="2">
         <v>78.7</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" s="2">
+        <v>78.7</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="P4" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="R4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="S4" s="2">
+        <v>86.4</v>
+      </c>
+      <c r="T4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="U4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="V4" s="2">
+        <v>86.4</v>
+      </c>
+      <c r="W4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="Y4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="Z4" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AB4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD4" s="2" t="s">
+        <v>22</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="3">
-        <v>45514</v>
+      <c r="B5" s="4" t="s">
+        <v>40</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>10</v>
@@ -635,13 +918,91 @@
       <c r="D5" s="2">
         <v>81.3</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="2">
+        <v>81.3</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="2">
+        <v>88.9</v>
+      </c>
+      <c r="T5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" s="2">
+        <v>88.9</v>
+      </c>
+      <c r="W5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Y5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="Z5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="AD5" s="2" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="3">
-        <v>45640</v>
+      <c r="B6" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>12</v>
@@ -649,12 +1010,90 @@
       <c r="D6" s="2">
         <v>83.8</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H6" s="2">
+        <v>83.8</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="R6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" s="2">
+        <v>91.4</v>
+      </c>
+      <c r="T6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="U6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" s="2">
+        <v>91.4</v>
+      </c>
+      <c r="W6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="AB6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC6" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD6" s="2" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="4">
         <v>16</v>
       </c>
       <c r="C7" s="2">
@@ -663,330 +1102,95 @@
       <c r="D7" s="2">
         <v>86.4</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="4" t="s">
+      <c r="E7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F7" s="4">
+        <v>16</v>
+      </c>
+      <c r="G7" s="2">
+        <v>105.4</v>
+      </c>
+      <c r="H7" s="2">
+        <v>86.4</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J7" s="4">
+        <v>16</v>
+      </c>
+      <c r="K7" s="2">
+        <v>87.6</v>
+      </c>
+      <c r="L7" s="2">
+        <v>113</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N7" s="4">
+        <v>16</v>
+      </c>
+      <c r="O7" s="2">
+        <v>87.6</v>
+      </c>
+      <c r="P7" s="2">
+        <v>113</v>
+      </c>
+      <c r="Q7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R7" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="4"/>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="3">
-        <v>45388</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B12" s="3">
-        <v>45514</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3">
-        <v>45640</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>16</v>
-      </c>
-      <c r="C14" s="2">
-        <v>87.6</v>
-      </c>
-      <c r="D14" s="2">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="1" t="s">
+      <c r="S7" s="2">
+        <v>94</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="U7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="V7" s="2">
+        <v>94</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="X7" s="4">
+        <v>42</v>
+      </c>
+      <c r="Y7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B16" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C16" s="1" t="s">
+      <c r="Z7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA7" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="2">
-        <v>76.2</v>
-      </c>
-      <c r="B17" s="2">
-        <v>81.3</v>
-      </c>
-      <c r="C17" s="2">
-        <v>86.4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C19" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C20" s="2">
-        <v>83.8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C21" s="2">
-        <v>86.4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="C22" s="2">
-        <v>88.9</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C23" s="2">
-        <v>91.4</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="4"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B27" s="2" t="s">
+      <c r="AB7" s="4">
+        <v>42</v>
+      </c>
+      <c r="AC7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="AD7" s="2" t="s">
         <v>38</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B31" s="2">
-        <v>42</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
-    </row>
-    <row r="33" spans="1:3">
-      <c r="A33" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B33" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C33" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>76.2</v>
-      </c>
-      <c r="B34" s="2">
-        <v>81.3</v>
-      </c>
-      <c r="C34" s="2">
-        <v>86.4</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="8">
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A8:D8"/>
-    <mergeCell ref="A15:C15"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A32:C32"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="Q1:S1"/>
+    <mergeCell ref="W1:Z1"/>
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="M1:P1"/>
+    <mergeCell ref="T1:V1"/>
+    <mergeCell ref="AA1:AD1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
